--- a/docs/StructureDefinition-VAPrimaryCareTeam.xlsx
+++ b/docs/StructureDefinition-VAPrimaryCareTeam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="295">
   <si>
     <t>Path</t>
   </si>
@@ -310,10 +310,238 @@
     <t>CareTeam.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>CareTeam.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CareTeam.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this team</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this care team that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>CareTeam.status</t>
+  </si>
+  <si>
+    <t>proposed | active | suspended | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>Indicates the current state of the care team.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the care team as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates the status of the care team.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-team-status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CareTeam.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of team</t>
+  </si>
+  <si>
+    <t>Identifies what kind of team.  This is to support differentiation between multiple co-existing teams, such as care plan team, episode of care team, longitudinal care team.</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization and one team may serve multiple purposes.</t>
+  </si>
+  <si>
+    <t>Used for filtering what teams(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Indicates the type of care team.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>CareTeam.name</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Primary Care Team info</t>
+  </si>
+  <si>
+    <t>A label for human use intended to distinguish like teams.  E.g. the "red" vs. "green" trauma teams.</t>
+  </si>
+  <si>
+    <t>The meaning/purpose of the team is conveyed in CareTeam.category.  This element may also convey semantics of the team (e.g. "Red trauma team"), but its primary purpose is to distinguish between identical teams in a human-friendly way.  ("Team 18735" isn't as friendly . ).</t>
+  </si>
+  <si>
+    <t>TEAM FILE @NAME 404.51-.01</t>
+  </si>
+  <si>
+    <t>CareTeam.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who care team is for</t>
+  </si>
+  <si>
+    <t>Identifies the patient or group whose intended care is handled by the team.</t>
+  </si>
+  <si>
+    <t>Allows the team to care for a group (e.g. marriage) therapy.</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>CareTeam.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encounter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+</t>
+  </si>
+  <si>
+    <t>Encounter or episode associated with CareTeam</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care that establishes the context for this care team.</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>CareTeam.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period team covers</t>
+  </si>
+  <si>
+    <t>Indicates when the team did (or is intended to) come into effect and end.</t>
+  </si>
+  <si>
+    <t>Allows tracking what team(s) are in effect at a particular time.</t>
+  </si>
+  <si>
+    <t>when.init</t>
+  </si>
+  <si>
+    <t>CareTeam.participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Members of the team</t>
+  </si>
+  <si>
+    <t>Identifies all people and organizations who are expected to be involved in the care team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve() is Practitioner)}</t>
+  </si>
+  <si>
+    <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>CareTeam.participant.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CareTeam.participant.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -327,229 +555,34 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>CareTeam.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CareTeam.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>participant-roleStatus</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/participant-roleStatus}
 </t>
   </si>
   <si>
-    <t>External Ids for this team</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this care team that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>CareTeam.status</t>
-  </si>
-  <si>
-    <t>proposed | active | suspended | inactive | entered-in-error</t>
-  </si>
-  <si>
-    <t>Indicates the current state of the care team.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the care team as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates the status of the care team.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-team-status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>CareTeam.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This indicates whether the practitioner's position assignment is active or inactive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Type of team</t>
-  </si>
-  <si>
-    <t>Identifies what kind of team.  This is to support differentiation between multiple co-existing teams, such as care plan team, episode of care team, longitudinal care team.</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization and one team may serve multiple purposes.</t>
-  </si>
-  <si>
-    <t>Used for filtering what teams(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Indicates the type of care team.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>CareTeam.name</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Primary Care Team info</t>
-  </si>
-  <si>
-    <t>A label for human use intended to distinguish like teams.  E.g. the "red" vs. "green" trauma teams.</t>
-  </si>
-  <si>
-    <t>The meaning/purpose of the team is conveyed in CareTeam.category.  This element may also convey semantics of the team (e.g. "Red trauma team"), but its primary purpose is to distinguish between identical teams in a human-friendly way.  ("Team 18735" isn't as friendly . ).</t>
-  </si>
-  <si>
-    <t>TEAM FILE @NAME 404.51-.01</t>
-  </si>
-  <si>
-    <t>CareTeam.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who care team is for</t>
-  </si>
-  <si>
-    <t>Identifies the patient or group whose intended care is handled by the team.</t>
-  </si>
-  <si>
-    <t>Allows the team to care for a group (e.g. marriage) therapy.</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>CareTeam.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
-</t>
-  </si>
-  <si>
-    <t>Encounter or episode associated with CareTeam</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care that establishes the context for this care team.</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>CareTeam.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period team covers</t>
-  </si>
-  <si>
-    <t>Indicates when the team did (or is intended to) come into effect and end.</t>
-  </si>
-  <si>
-    <t>Allows tracking what team(s) are in effect at a particular time.</t>
-  </si>
-  <si>
-    <t>when.init</t>
-  </si>
-  <si>
-    <t>CareTeam.participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Members of the team</t>
-  </si>
-  <si>
-    <t>Identifies all people and organizations who are expected to be involved in the care team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctm-1
-</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve() is Practitioner)}</t>
-  </si>
-  <si>
-    <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>CareTeam.participant.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CareTeam.participant.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>POSITION ASSIGNMENT HISTORY @STATUS 404.52-.04</t>
   </si>
   <si>
     <t>participant-primaryCareRole</t>
@@ -562,37 +595,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>This is used to indicate if patient - team position assigment is a  special one (e.g. primary care practitioner or primary care attending).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PATIENT TEAM POSITION ASSIGNMENTS @PC ROLE 404.43-.05</t>
-  </si>
-  <si>
-    <t>participant-roleStatus</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/participant-roleStatus}
-</t>
-  </si>
-  <si>
-    <t>This indicates whether the practitioner's position assignment is active or inactive.</t>
-  </si>
-  <si>
-    <t>POSITION ASSIGNMENT HISTORY @STATUS 404.52-.04</t>
   </si>
   <si>
     <t>CareTeam.participant.modifierExtension</t>
@@ -636,9 +642,6 @@
   </si>
   <si>
     <t>CareTeam.participant.role.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -2030,7 +2033,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2049,15 +2052,17 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
@@ -2094,14 +2099,16 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>99</v>
@@ -2128,7 +2135,7 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -2137,7 +2144,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2156,16 +2163,16 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2215,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2244,7 +2251,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2267,13 +2274,13 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2324,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2342,7 +2349,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2353,7 +2360,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2379,13 +2386,13 @@
         <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2411,14 +2418,14 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2435,7 +2442,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2453,7 +2460,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2464,7 +2471,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2487,19 +2494,19 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2524,14 +2531,14 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2566,7 +2573,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2577,14 +2584,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>41</v>
@@ -2602,16 +2609,16 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2661,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2676,7 +2683,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2690,11 +2697,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2713,17 +2720,17 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2772,7 +2779,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2790,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2801,11 +2808,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2824,13 +2831,13 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2881,7 +2888,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2899,7 +2906,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2910,7 +2917,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2933,17 +2940,17 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2992,7 +2999,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3010,7 +3017,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3021,7 +3028,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3044,13 +3051,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3101,7 +3108,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3110,27 +3117,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AI18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3153,13 +3160,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3210,7 +3217,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3234,12 +3241,12 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3262,13 +3269,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3307,17 +3314,17 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3346,16 +3353,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>41</v>
@@ -3373,13 +3380,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3430,7 +3437,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3439,13 +3446,13 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3459,16 +3466,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>41</v>
@@ -3486,13 +3493,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3543,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3552,13 +3559,13 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3572,11 +3579,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3595,16 +3602,16 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3654,7 +3661,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3683,7 +3690,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3706,16 +3713,16 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3741,13 +3748,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3765,7 +3772,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3786,15 +3793,15 @@
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3817,13 +3824,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3874,7 +3881,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3898,16 +3905,16 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3926,16 +3933,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3973,19 +3980,19 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4009,12 +4016,12 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4037,19 +4044,19 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4098,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4119,15 +4126,15 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4150,13 +4157,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4207,7 +4214,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4231,16 +4238,16 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4259,16 +4266,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4306,19 +4313,19 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4342,12 +4349,12 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4373,16 +4380,16 @@
         <v>62</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4431,7 +4438,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4452,15 +4459,15 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4483,16 +4490,16 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4542,7 +4549,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4563,22 +4570,22 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>41</v>
@@ -4599,14 +4606,14 @@
         <v>68</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4655,7 +4662,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4670,21 +4677,21 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4707,17 +4714,17 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4766,7 +4773,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4787,15 +4794,15 @@
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4818,19 +4825,19 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4879,7 +4886,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4900,15 +4907,15 @@
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4931,19 +4938,19 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4992,7 +4999,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5013,22 +5020,22 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>41</v>
@@ -5046,16 +5053,16 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5105,7 +5112,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5120,21 +5127,21 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5157,17 +5164,17 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5216,7 +5223,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5245,7 +5252,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5268,13 +5275,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5325,7 +5332,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5354,7 +5361,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5377,13 +5384,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5410,13 +5417,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5434,7 +5441,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5452,7 +5459,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5463,7 +5470,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5486,13 +5493,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5543,7 +5550,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5561,7 +5568,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5572,7 +5579,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5595,17 +5602,17 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5654,7 +5661,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5683,7 +5690,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5706,13 +5713,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5763,7 +5770,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-VAPrimaryCareTeam.xlsx
+++ b/docs/StructureDefinition-VAPrimaryCareTeam.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="301">
   <si>
     <t>Path</t>
   </si>
@@ -310,33 +310,67 @@
     <t>CareTeam.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t>TEAM PHONE NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/valueReference}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the phone number associated with the team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>TEAM FILE @TEAM PHONE NUMBER 404.51-.02</t>
+  </si>
+  <si>
+    <t>CareTeam.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>CareTeam.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -542,19 +576,6 @@
     <t>CareTeam.participant.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -568,18 +589,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>This indicates whether the practitioner's position assignment is active or inactive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>POSITION ASSIGNMENT HISTORY @STATUS 404.52-.04</t>
@@ -644,6 +654,9 @@
     <t>CareTeam.participant.role.extension</t>
   </si>
   <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -917,13 +930,19 @@
     <t>CareTeam.managingOrganization</t>
   </si>
   <si>
+    <t>INSTITUTION</t>
+  </si>
+  <si>
     <t>Organization responsible for the care team</t>
   </si>
   <si>
-    <t>The organization responsible for the care team.</t>
+    <t>This is the entry for the site in the INSTITUTION File.</t>
   </si>
   <si>
     <t>Allows for multiple organizations to collaboratively manage cross-organizational, longitudinal care plan.</t>
+  </si>
+  <si>
+    <t>TEAM FILE @INSTITUTION  404.51-.07</t>
   </si>
   <si>
     <t>CareTeam.note</t>
@@ -1085,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1097,7 +1116,7 @@
     <col min="1" max="1" width="44.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="14.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -2033,7 +2052,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2052,17 +2071,15 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
@@ -2099,16 +2116,14 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>99</v>
@@ -2135,18 +2150,22 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="E10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2154,26 +2173,24 @@
         <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2222,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2231,13 +2248,13 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -2251,11 +2268,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2268,21 +2285,23 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2331,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2349,18 +2368,18 @@
         <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2371,29 +2390,27 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2418,37 +2435,37 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2460,7 +2477,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2471,7 +2488,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2482,32 +2499,30 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>122</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2555,13 +2570,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2582,7 +2597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>127</v>
       </c>
@@ -2590,17 +2605,15 @@
       <c r="C14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -2609,18 +2622,20 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2644,13 +2659,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2674,7 +2689,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -2683,10 +2698,10 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2695,15 +2710,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
@@ -2711,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -2720,18 +2737,18 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2794,10 +2811,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2808,11 +2825,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2831,16 +2848,18 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2888,7 +2907,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2906,7 +2925,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2917,11 +2936,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2940,18 +2959,16 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2999,7 +3016,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3017,7 +3034,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3028,7 +3045,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3039,7 +3056,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3048,19 +3065,21 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3108,36 +3127,36 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3148,7 +3167,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3160,13 +3179,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3217,19 +3236,19 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
@@ -3238,15 +3257,15 @@
         <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3257,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3269,13 +3288,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3314,23 +3333,25 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3348,22 +3369,18 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D21" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3371,7 +3388,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -3380,13 +3397,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3425,19 +3442,17 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3446,13 +3461,13 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3461,21 +3476,21 @@
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>41</v>
@@ -3493,13 +3508,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3550,7 +3565,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3559,13 +3574,13 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3577,15 +3592,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3593,26 +3612,24 @@
         <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3661,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3670,13 +3687,13 @@
         <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -3690,39 +3707,39 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3748,13 +3765,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3772,13 +3789,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3793,15 +3810,15 @@
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>196</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3821,18 +3838,20 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3857,13 +3876,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3881,7 +3900,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3902,26 +3921,26 @@
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3933,17 +3952,15 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3980,25 +3997,25 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4016,7 +4033,7 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -4025,7 +4042,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4041,23 +4058,21 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4093,19 +4108,19 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4126,15 +4141,15 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4145,7 +4160,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4154,19 +4169,23 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4214,13 +4233,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4235,26 +4254,26 @@
         <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4266,17 +4285,15 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4313,25 +4330,25 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4349,23 +4366,23 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4374,23 +4391,21 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4426,25 +4441,25 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4459,15 +4474,15 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4490,18 +4505,20 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4549,7 +4566,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4570,23 +4587,21 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D32" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4594,7 +4609,7 @@
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4603,18 +4618,18 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4662,7 +4677,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4677,27 +4692,29 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4705,7 +4722,7 @@
         <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -4714,17 +4731,17 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4773,7 +4790,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4788,21 +4805,21 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4825,19 +4842,17 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4886,7 +4901,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4907,15 +4922,15 @@
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4938,19 +4953,19 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4999,7 +5014,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5020,23 +5035,21 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D36" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5044,7 +5057,7 @@
         <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -5053,18 +5066,20 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5112,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5127,27 +5142,29 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5155,7 +5172,7 @@
         <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5164,18 +5181,18 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5223,7 +5240,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5238,21 +5255,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5272,10 +5289,10 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>276</v>
@@ -5284,7 +5301,9 @@
         <v>277</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5332,7 +5351,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5361,7 +5380,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5372,7 +5391,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5384,13 +5403,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5417,13 +5436,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5441,13 +5460,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5459,7 +5478,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5470,7 +5489,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5493,13 +5512,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5526,13 +5545,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5550,7 +5569,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5568,7 +5587,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5579,7 +5598,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5599,21 +5618,19 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5661,7 +5678,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5679,7 +5696,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5688,7 +5705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>291</v>
       </c>
@@ -5696,7 +5713,9 @@
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5704,16 +5723,16 @@
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>293</v>
@@ -5722,7 +5741,9 @@
         <v>294</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5785,7 +5806,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -5794,11 +5815,120 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM42">
+  <autoFilter ref="A1:AM43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5808,7 +5938,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
